--- a/data/data_from_M/integrated/SV 117 Glenmore Avenue.xlsx
+++ b/data/data_from_M/integrated/SV 117 Glenmore Avenue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlittle\Documents\Soil Vapor for students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseycovell/Desktop/Spring 2023/Capstone/ehs_capstone_nycdoh/data/data_from_M/integrated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57039C8E-A4DC-4FD8-A1A8-0B281BFBF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEEEA98-2CAA-EE46-800C-BE066C2C9845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="780" windowWidth="25420" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="168">
   <si>
     <r>
       <rPr>
@@ -1747,52 +1747,12 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yy\-mm\-d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1813,7 +1773,12 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1825,14 +1790,26 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
+      <sz val="8.5"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1942,8 +1919,20 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1951,20 +1940,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1972,23 +1964,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2330,43 +2307,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="A682" sqref="A682:XFD695"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76:G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.796875" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2381,7 +2358,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2391,12 +2368,12 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2388,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2426,7 +2403,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2441,7 +2418,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2451,12 +2428,12 @@
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2469,7 +2446,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2482,48 +2459,48 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="2"/>
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -2544,16 +2521,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="14">
         <v>51</v>
       </c>
@@ -2567,7 +2542,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2588,7 +2563,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2609,7 +2584,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -2630,7 +2605,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -2651,7 +2626,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>42</v>
       </c>
@@ -2672,7 +2647,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -2693,7 +2668,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>46</v>
       </c>
@@ -2714,7 +2689,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>48</v>
       </c>
@@ -2735,7 +2710,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>50</v>
       </c>
@@ -2756,7 +2731,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>52</v>
       </c>
@@ -2777,7 +2752,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>54</v>
       </c>
@@ -2798,7 +2773,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2794,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>58</v>
       </c>
@@ -2840,7 +2815,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
@@ -2861,7 +2836,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>62</v>
       </c>
@@ -2882,7 +2857,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>64</v>
       </c>
@@ -2903,7 +2878,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>66</v>
       </c>
@@ -2924,7 +2899,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>68</v>
       </c>
@@ -2945,7 +2920,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>70</v>
       </c>
@@ -2966,7 +2941,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>72</v>
       </c>
@@ -2987,7 +2962,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
@@ -3008,7 +2983,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>76</v>
       </c>
@@ -3029,7 +3004,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>78</v>
       </c>
@@ -3050,7 +3025,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>80</v>
       </c>
@@ -3071,7 +3046,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
@@ -3092,7 +3067,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
@@ -3113,7 +3088,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
@@ -3134,7 +3109,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
@@ -3155,7 +3130,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>90</v>
       </c>
@@ -3176,7 +3151,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>92</v>
       </c>
@@ -3197,7 +3172,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
         <v>94</v>
       </c>
@@ -3218,7 +3193,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>96</v>
       </c>
@@ -3239,7 +3214,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>98</v>
       </c>
@@ -3260,7 +3235,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>99</v>
       </c>
@@ -3281,7 +3256,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
         <v>101</v>
       </c>
@@ -3302,7 +3277,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>103</v>
       </c>
@@ -3323,7 +3298,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>105</v>
       </c>
@@ -3344,7 +3319,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>107</v>
       </c>
@@ -3365,7 +3340,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>109</v>
       </c>
@@ -3386,7 +3361,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>111</v>
       </c>
@@ -3407,7 +3382,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>113</v>
       </c>
@@ -3428,7 +3403,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
         <v>115</v>
       </c>
@@ -3449,7 +3424,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>117</v>
       </c>
@@ -3470,7 +3445,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
         <v>119</v>
       </c>
@@ -3491,7 +3466,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
         <v>121</v>
       </c>
@@ -3512,17 +3487,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="40">
         <v>0.5</v>
       </c>
-      <c r="D61" s="38"/>
+      <c r="D61" s="40"/>
       <c r="E61" s="17">
         <v>2.8</v>
       </c>
@@ -3533,7 +3508,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
         <v>124</v>
       </c>
@@ -3554,17 +3529,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="28">
         <v>9.6</v>
       </c>
-      <c r="D63" s="40"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="14">
         <v>47</v>
       </c>
@@ -3575,17 +3550,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D64" s="40"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="14">
         <v>12</v>
       </c>
@@ -3596,17 +3571,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="28">
         <v>5.4</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="14">
         <v>25</v>
       </c>
@@ -3617,7 +3592,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
         <v>132</v>
       </c>
@@ -3638,7 +3613,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>134</v>
       </c>
@@ -3659,17 +3634,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B68" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="28">
         <v>9.9</v>
       </c>
-      <c r="D68" s="40"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="14">
         <v>43</v>
       </c>
@@ -3680,17 +3655,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="28">
         <v>5.4</v>
       </c>
-      <c r="D69" s="40"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="14">
         <v>23</v>
       </c>
@@ -3701,29 +3676,29 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+    </row>
+    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-    </row>
-    <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -3738,7 +3713,7 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -3748,12 +3723,12 @@
       <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G73" s="30"/>
-    </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G73" s="34"/>
+    </row>
+    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -3768,7 +3743,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -3783,7 +3758,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -3793,12 +3768,12 @@
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="30"/>
-    </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="34"/>
+    </row>
+    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -3808,12 +3783,12 @@
       <c r="E77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="30"/>
-    </row>
-    <row r="78" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="34"/>
+    </row>
+    <row r="78" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3826,7 +3801,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -3839,48 +3814,48 @@
       </c>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="31" t="s">
+    <row r="80" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="32" t="s">
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="32"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="2"/>
       <c r="D81" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="33" t="s">
+      <c r="F81" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="33"/>
-    </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="31"/>
+    </row>
+    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="34" t="s">
+      <c r="E82" s="31"/>
+      <c r="F82" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G82" s="34"/>
-    </row>
-    <row r="83" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="32"/>
+    </row>
+    <row r="83" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>26</v>
       </c>
@@ -3901,7 +3876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12" t="s">
         <v>30</v>
       </c>
@@ -3924,7 +3899,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12" t="s">
         <v>33</v>
       </c>
@@ -3945,7 +3920,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12" t="s">
         <v>35</v>
       </c>
@@ -3966,7 +3941,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12" t="s">
         <v>38</v>
       </c>
@@ -3987,7 +3962,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12" t="s">
         <v>40</v>
       </c>
@@ -4008,7 +3983,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12" t="s">
         <v>42</v>
       </c>
@@ -4029,7 +4004,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12" t="s">
         <v>44</v>
       </c>
@@ -4050,7 +4025,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12" t="s">
         <v>46</v>
       </c>
@@ -4071,7 +4046,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12" t="s">
         <v>48</v>
       </c>
@@ -4092,7 +4067,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12" t="s">
         <v>50</v>
       </c>
@@ -4113,7 +4088,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12" t="s">
         <v>52</v>
       </c>
@@ -4134,7 +4109,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="12" t="s">
         <v>54</v>
       </c>
@@ -4155,7 +4130,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="12" t="s">
         <v>56</v>
       </c>
@@ -4176,7 +4151,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="12" t="s">
         <v>58</v>
       </c>
@@ -4197,7 +4172,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="12" t="s">
         <v>60</v>
       </c>
@@ -4218,7 +4193,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="12" t="s">
         <v>62</v>
       </c>
@@ -4239,7 +4214,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="12" t="s">
         <v>64</v>
       </c>
@@ -4260,7 +4235,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="12" t="s">
         <v>66</v>
       </c>
@@ -4281,7 +4256,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="12" t="s">
         <v>68</v>
       </c>
@@ -4302,7 +4277,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="12" t="s">
         <v>70</v>
       </c>
@@ -4323,7 +4298,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="12" t="s">
         <v>72</v>
       </c>
@@ -4344,7 +4319,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="12" t="s">
         <v>74</v>
       </c>
@@ -4365,7 +4340,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="12" t="s">
         <v>76</v>
       </c>
@@ -4386,7 +4361,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="12" t="s">
         <v>78</v>
       </c>
@@ -4407,7 +4382,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="12" t="s">
         <v>80</v>
       </c>
@@ -4428,7 +4403,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="12" t="s">
         <v>82</v>
       </c>
@@ -4449,7 +4424,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="12" t="s">
         <v>84</v>
       </c>
@@ -4470,7 +4445,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="12" t="s">
         <v>86</v>
       </c>
@@ -4491,7 +4466,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="12" t="s">
         <v>88</v>
       </c>
@@ -4512,7 +4487,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
         <v>90</v>
       </c>
@@ -4533,7 +4508,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="12" t="s">
         <v>92</v>
       </c>
@@ -4554,7 +4529,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
         <v>94</v>
       </c>
@@ -4575,7 +4550,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="12" t="s">
         <v>96</v>
       </c>
@@ -4598,7 +4573,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="12" t="s">
         <v>98</v>
       </c>
@@ -4619,7 +4594,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="12" t="s">
         <v>99</v>
       </c>
@@ -4640,7 +4615,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="12" t="s">
         <v>101</v>
       </c>
@@ -4661,7 +4636,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="12" t="s">
         <v>103</v>
       </c>
@@ -4682,7 +4657,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="12" t="s">
         <v>105</v>
       </c>
@@ -4703,7 +4678,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="12" t="s">
         <v>107</v>
       </c>
@@ -4724,7 +4699,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="12" t="s">
         <v>109</v>
       </c>
@@ -4745,7 +4720,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="12" t="s">
         <v>111</v>
       </c>
@@ -4766,7 +4741,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="12" t="s">
         <v>113</v>
       </c>
@@ -4787,7 +4762,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="12" t="s">
         <v>115</v>
       </c>
@@ -4808,7 +4783,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="12" t="s">
         <v>117</v>
       </c>
@@ -4829,7 +4804,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="12" t="s">
         <v>119</v>
       </c>
@@ -4850,7 +4825,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="12" t="s">
         <v>121</v>
       </c>
@@ -4871,17 +4846,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="38">
+      <c r="C130" s="40">
         <v>0.7</v>
       </c>
-      <c r="D130" s="38"/>
+      <c r="D130" s="40"/>
       <c r="E130" s="17">
         <v>3.9</v>
       </c>
@@ -4892,7 +4867,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="12" t="s">
         <v>124</v>
       </c>
@@ -4913,17 +4888,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C132" s="41">
+      <c r="C132" s="30">
         <v>14</v>
       </c>
-      <c r="D132" s="41"/>
+      <c r="D132" s="30"/>
       <c r="E132" s="14">
         <v>70</v>
       </c>
@@ -4934,17 +4909,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B133" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="40">
+      <c r="C133" s="28">
         <v>3.5</v>
       </c>
-      <c r="D133" s="40"/>
+      <c r="D133" s="28"/>
       <c r="E133" s="14">
         <v>17</v>
       </c>
@@ -4955,17 +4930,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B134" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="40">
+      <c r="C134" s="28">
         <v>5</v>
       </c>
-      <c r="D134" s="40"/>
+      <c r="D134" s="28"/>
       <c r="E134" s="14">
         <v>23</v>
       </c>
@@ -4976,7 +4951,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="12" t="s">
         <v>132</v>
       </c>
@@ -4997,7 +4972,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="12" t="s">
         <v>134</v>
       </c>
@@ -5018,17 +4993,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="41">
+      <c r="C137" s="30">
         <v>14</v>
       </c>
-      <c r="D137" s="41"/>
+      <c r="D137" s="30"/>
       <c r="E137" s="14">
         <v>61</v>
       </c>
@@ -5039,17 +5014,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C138" s="40">
+      <c r="C138" s="28">
         <v>7.6</v>
       </c>
-      <c r="D138" s="40"/>
+      <c r="D138" s="28"/>
       <c r="E138" s="14">
         <v>33</v>
       </c>
@@ -5060,35 +5035,35 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="28" t="s">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-    </row>
-    <row r="140" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="29" t="s">
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+    </row>
+    <row r="140" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-    </row>
-    <row r="141" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+    </row>
+    <row r="141" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="3" t="s">
         <v>3</v>
       </c>
@@ -5097,28 +5072,28 @@
       </c>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
       <c r="E142" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F142" s="30" t="s">
+      <c r="F142" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G142" s="30"/>
-    </row>
-    <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G142" s="34"/>
+    </row>
+    <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
       <c r="E143" s="3" t="s">
         <v>8</v>
       </c>
@@ -5127,13 +5102,13 @@
       </c>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43"/>
       <c r="E144" s="1" t="s">
         <v>10</v>
       </c>
@@ -5142,13 +5117,13 @@
       </c>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
       <c r="E145" s="1" t="s">
         <v>12</v>
       </c>
@@ -5157,13 +5132,13 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
       <c r="E146" s="3" t="s">
         <v>14</v>
       </c>
@@ -5172,11 +5147,11 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
       <c r="E147" s="3" t="s">
         <v>16</v>
       </c>
@@ -5185,11 +5160,11 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
       <c r="E148" s="3" t="s">
         <v>17</v>
       </c>
@@ -5198,58 +5173,58 @@
       </c>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="31" t="s">
+    <row r="149" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="32" t="s">
+      <c r="B149" s="36"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B150" s="32"/>
-      <c r="C150" s="32" t="s">
+      <c r="B150" s="37"/>
+      <c r="C150" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D150" s="32"/>
+      <c r="D150" s="37"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="33" t="s">
+      <c r="F150" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G150" s="33"/>
-    </row>
-    <row r="151" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G150" s="31"/>
+    </row>
+    <row r="151" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="B151" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="37" t="s">
+      <c r="C151" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="34" t="s">
+      <c r="D151" s="42"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G151" s="34"/>
-    </row>
-    <row r="152" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G151" s="32"/>
+    </row>
+    <row r="152" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="34" t="s">
+      <c r="C152" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="34"/>
+      <c r="D152" s="32"/>
       <c r="E152" s="10" t="s">
         <v>29</v>
       </c>
@@ -5260,17 +5235,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C153" s="41">
+      <c r="C153" s="30">
         <v>20</v>
       </c>
-      <c r="D153" s="41"/>
+      <c r="D153" s="30"/>
       <c r="E153" s="14">
         <v>48</v>
       </c>
@@ -5281,17 +5256,17 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C154" s="38">
+      <c r="C154" s="40">
         <v>0.85</v>
       </c>
-      <c r="D154" s="38"/>
+      <c r="D154" s="40"/>
       <c r="E154" s="17">
         <v>2.7</v>
       </c>
@@ -5302,7 +5277,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="12" t="s">
         <v>35</v>
       </c>
@@ -5323,7 +5298,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="12" t="s">
         <v>38</v>
       </c>
@@ -5344,7 +5319,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
         <v>40</v>
       </c>
@@ -5365,7 +5340,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="12" t="s">
         <v>42</v>
       </c>
@@ -5386,7 +5361,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="12" t="s">
         <v>44</v>
       </c>
@@ -5407,7 +5382,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="12" t="s">
         <v>46</v>
       </c>
@@ -5428,7 +5403,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="12" t="s">
         <v>48</v>
       </c>
@@ -5449,7 +5424,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="12" t="s">
         <v>50</v>
       </c>
@@ -5470,17 +5445,17 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="40">
+      <c r="C163" s="28">
         <v>1.4</v>
       </c>
-      <c r="D163" s="40"/>
+      <c r="D163" s="28"/>
       <c r="E163" s="17">
         <v>4.3</v>
       </c>
@@ -5491,7 +5466,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="12" t="s">
         <v>54</v>
       </c>
@@ -5512,17 +5487,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B165" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C165" s="40">
+      <c r="C165" s="28">
         <v>1.7</v>
       </c>
-      <c r="D165" s="40"/>
+      <c r="D165" s="28"/>
       <c r="E165" s="17">
         <v>5.8</v>
       </c>
@@ -5533,7 +5508,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="12" t="s">
         <v>58</v>
       </c>
@@ -5554,7 +5529,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="12" t="s">
         <v>60</v>
       </c>
@@ -5575,7 +5550,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="12" t="s">
         <v>62</v>
       </c>
@@ -5596,7 +5571,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="12" t="s">
         <v>64</v>
       </c>
@@ -5617,7 +5592,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="12" t="s">
         <v>66</v>
       </c>
@@ -5638,7 +5613,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="12" t="s">
         <v>68</v>
       </c>
@@ -5659,7 +5634,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="12" t="s">
         <v>70</v>
       </c>
@@ -5680,7 +5655,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="12" t="s">
         <v>72</v>
       </c>
@@ -5701,7 +5676,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="12" t="s">
         <v>74</v>
       </c>
@@ -5722,7 +5697,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="12" t="s">
         <v>76</v>
       </c>
@@ -5743,7 +5718,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="12" t="s">
         <v>78</v>
       </c>
@@ -5764,7 +5739,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="12" t="s">
         <v>80</v>
       </c>
@@ -5785,7 +5760,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="12" t="s">
         <v>82</v>
       </c>
@@ -5806,7 +5781,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="12" t="s">
         <v>84</v>
       </c>
@@ -5827,7 +5802,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="12" t="s">
         <v>86</v>
       </c>
@@ -5848,7 +5823,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="12" t="s">
         <v>88</v>
       </c>
@@ -5869,17 +5844,17 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B182" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C182" s="38">
+      <c r="C182" s="40">
         <v>0.85</v>
       </c>
-      <c r="D182" s="38"/>
+      <c r="D182" s="40"/>
       <c r="E182" s="17">
         <v>3.7</v>
       </c>
@@ -5890,17 +5865,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B183" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="40">
+      <c r="C183" s="28">
         <v>5.3</v>
       </c>
-      <c r="D183" s="40"/>
+      <c r="D183" s="28"/>
       <c r="E183" s="14">
         <v>22</v>
       </c>
@@ -5911,7 +5886,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="12" t="s">
         <v>94</v>
       </c>
@@ -5932,17 +5907,17 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B185" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C185" s="40">
+      <c r="C185" s="28">
         <v>7.4</v>
       </c>
-      <c r="D185" s="40"/>
+      <c r="D185" s="28"/>
       <c r="E185" s="14">
         <v>26</v>
       </c>
@@ -5953,17 +5928,17 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B186" s="23">
         <v>64164</v>
       </c>
-      <c r="C186" s="40">
+      <c r="C186" s="28">
         <v>1.2</v>
       </c>
-      <c r="D186" s="40"/>
+      <c r="D186" s="28"/>
       <c r="E186" s="17">
         <v>4.3</v>
       </c>
@@ -5974,17 +5949,17 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C187" s="40">
+      <c r="C187" s="28">
         <v>3.6</v>
       </c>
-      <c r="D187" s="40"/>
+      <c r="D187" s="28"/>
       <c r="E187" s="14">
         <v>11</v>
       </c>
@@ -5995,7 +5970,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="12" t="s">
         <v>101</v>
       </c>
@@ -6016,7 +5991,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="12" t="s">
         <v>103</v>
       </c>
@@ -6037,7 +6012,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="12" t="s">
         <v>105</v>
       </c>
@@ -6058,17 +6033,17 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C191" s="38">
+      <c r="C191" s="40">
         <v>0.25</v>
       </c>
-      <c r="D191" s="38"/>
+      <c r="D191" s="40"/>
       <c r="E191" s="25">
         <v>0.74</v>
       </c>
@@ -6079,7 +6054,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="12" t="s">
         <v>109</v>
       </c>
@@ -6100,17 +6075,17 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B193" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C193" s="38">
+      <c r="C193" s="40">
         <v>0.69</v>
       </c>
-      <c r="D193" s="38"/>
+      <c r="D193" s="40"/>
       <c r="E193" s="17">
         <v>4.7</v>
       </c>
@@ -6121,17 +6096,17 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B194" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C194" s="40">
+      <c r="C194" s="28">
         <v>3.1</v>
       </c>
-      <c r="D194" s="40"/>
+      <c r="D194" s="28"/>
       <c r="E194" s="14">
         <v>12</v>
       </c>
@@ -6142,7 +6117,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="12" t="s">
         <v>115</v>
       </c>
@@ -6163,7 +6138,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="12" t="s">
         <v>117</v>
       </c>
@@ -6184,7 +6159,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="12" t="s">
         <v>119</v>
       </c>
@@ -6205,7 +6180,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="12" t="s">
         <v>121</v>
       </c>
@@ -6226,17 +6201,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C199" s="38">
+      <c r="C199" s="40">
         <v>0.52</v>
       </c>
-      <c r="D199" s="38"/>
+      <c r="D199" s="40"/>
       <c r="E199" s="17">
         <v>2.9</v>
       </c>
@@ -6247,7 +6222,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="12" t="s">
         <v>124</v>
       </c>
@@ -6268,17 +6243,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C201" s="40">
+      <c r="C201" s="28">
         <v>2.5</v>
       </c>
-      <c r="D201" s="40"/>
+      <c r="D201" s="28"/>
       <c r="E201" s="14">
         <v>12</v>
       </c>
@@ -6289,17 +6264,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B202" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C202" s="38">
+      <c r="C202" s="40">
         <v>0.62</v>
       </c>
-      <c r="D202" s="38"/>
+      <c r="D202" s="40"/>
       <c r="E202" s="17">
         <v>3</v>
       </c>
@@ -6310,17 +6285,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B203" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C203" s="40">
+      <c r="C203" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D203" s="40"/>
+      <c r="D203" s="28"/>
       <c r="E203" s="17">
         <v>5</v>
       </c>
@@ -6331,7 +6306,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="12" t="s">
         <v>132</v>
       </c>
@@ -6352,7 +6327,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="12" t="s">
         <v>134</v>
       </c>
@@ -6373,17 +6348,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B206" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C206" s="40">
+      <c r="C206" s="28">
         <v>3.1</v>
       </c>
-      <c r="D206" s="40"/>
+      <c r="D206" s="28"/>
       <c r="E206" s="14">
         <v>14</v>
       </c>
@@ -6394,17 +6369,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C207" s="40">
+      <c r="C207" s="28">
         <v>1.7</v>
       </c>
-      <c r="D207" s="40"/>
+      <c r="D207" s="28"/>
       <c r="E207" s="17">
         <v>7.2</v>
       </c>
@@ -6415,29 +6390,29 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="28" t="s">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="28"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
-      <c r="F208" s="28"/>
-      <c r="G208" s="28"/>
-    </row>
-    <row r="209" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="29" t="s">
+      <c r="B208" s="38"/>
+      <c r="C208" s="38"/>
+      <c r="D208" s="38"/>
+      <c r="E208" s="38"/>
+      <c r="F208" s="38"/>
+      <c r="G208" s="38"/>
+    </row>
+    <row r="209" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="29"/>
-    </row>
-    <row r="210" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="33"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33"/>
+    </row>
+    <row r="210" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
@@ -6452,7 +6427,7 @@
       </c>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>4</v>
       </c>
@@ -6462,12 +6437,12 @@
       <c r="E211" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F211" s="30" t="s">
+      <c r="F211" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G211" s="30"/>
-    </row>
-    <row r="212" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G211" s="34"/>
+    </row>
+    <row r="212" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -6482,7 +6457,7 @@
       </c>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>9</v>
       </c>
@@ -6497,7 +6472,7 @@
       </c>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>11</v>
       </c>
@@ -6507,12 +6482,12 @@
       <c r="E214" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F214" s="30" t="s">
+      <c r="F214" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G214" s="30"/>
-    </row>
-    <row r="215" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G214" s="34"/>
+    </row>
+    <row r="215" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>13</v>
       </c>
@@ -6522,12 +6497,12 @@
       <c r="E215" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F215" s="30" t="s">
+      <c r="F215" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G215" s="30"/>
-    </row>
-    <row r="216" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G215" s="34"/>
+    </row>
+    <row r="216" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6540,7 +6515,7 @@
       </c>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -6553,48 +6528,48 @@
       </c>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="31" t="s">
+    <row r="218" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B218" s="31"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="31"/>
-      <c r="E218" s="31"/>
-      <c r="F218" s="31"/>
-      <c r="G218" s="31"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="32" t="s">
+      <c r="B218" s="36"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B219" s="32"/>
+      <c r="B219" s="37"/>
       <c r="C219" s="2"/>
       <c r="D219" s="7" t="s">
         <v>147</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="F219" s="33" t="s">
+      <c r="F219" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G219" s="33"/>
-    </row>
-    <row r="220" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G219" s="31"/>
+    </row>
+    <row r="220" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
       <c r="B220" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C220" s="2"/>
-      <c r="D220" s="33" t="s">
+      <c r="D220" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E220" s="33"/>
-      <c r="F220" s="34" t="s">
+      <c r="E220" s="31"/>
+      <c r="F220" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G220" s="34"/>
-    </row>
-    <row r="221" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G220" s="32"/>
+    </row>
+    <row r="221" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="10" t="s">
         <v>26</v>
       </c>
@@ -6615,7 +6590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="12" t="s">
         <v>30</v>
       </c>
@@ -6638,7 +6613,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="12" t="s">
         <v>33</v>
       </c>
@@ -6659,7 +6634,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="12" t="s">
         <v>35</v>
       </c>
@@ -6680,7 +6655,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="12" t="s">
         <v>38</v>
       </c>
@@ -6701,7 +6676,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="12" t="s">
         <v>40</v>
       </c>
@@ -6722,7 +6697,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="12" t="s">
         <v>42</v>
       </c>
@@ -6743,7 +6718,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="12" t="s">
         <v>44</v>
       </c>
@@ -6764,7 +6739,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="12" t="s">
         <v>46</v>
       </c>
@@ -6785,7 +6760,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="12" t="s">
         <v>48</v>
       </c>
@@ -6806,7 +6781,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="12" t="s">
         <v>50</v>
       </c>
@@ -6827,7 +6802,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="12" t="s">
         <v>52</v>
       </c>
@@ -6848,7 +6823,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="12" t="s">
         <v>54</v>
       </c>
@@ -6869,7 +6844,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="12" t="s">
         <v>56</v>
       </c>
@@ -6890,7 +6865,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="12" t="s">
         <v>58</v>
       </c>
@@ -6911,7 +6886,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="12" t="s">
         <v>60</v>
       </c>
@@ -6932,7 +6907,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="12" t="s">
         <v>62</v>
       </c>
@@ -6953,7 +6928,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="12" t="s">
         <v>64</v>
       </c>
@@ -6974,7 +6949,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="12" t="s">
         <v>66</v>
       </c>
@@ -6995,7 +6970,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="12" t="s">
         <v>68</v>
       </c>
@@ -7016,7 +6991,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="12" t="s">
         <v>70</v>
       </c>
@@ -7037,7 +7012,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="12" t="s">
         <v>72</v>
       </c>
@@ -7058,7 +7033,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="12" t="s">
         <v>74</v>
       </c>
@@ -7079,7 +7054,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="12" t="s">
         <v>76</v>
       </c>
@@ -7100,7 +7075,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="12" t="s">
         <v>78</v>
       </c>
@@ -7121,7 +7096,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="12" t="s">
         <v>80</v>
       </c>
@@ -7142,7 +7117,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="12" t="s">
         <v>82</v>
       </c>
@@ -7163,7 +7138,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="12" t="s">
         <v>84</v>
       </c>
@@ -7184,7 +7159,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="12" t="s">
         <v>86</v>
       </c>
@@ -7205,7 +7180,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="12" t="s">
         <v>88</v>
       </c>
@@ -7226,7 +7201,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="12" t="s">
         <v>90</v>
       </c>
@@ -7247,7 +7222,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="12" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7243,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="12" t="s">
         <v>94</v>
       </c>
@@ -7289,7 +7264,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="12" t="s">
         <v>96</v>
       </c>
@@ -7310,7 +7285,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="12" t="s">
         <v>98</v>
       </c>
@@ -7331,7 +7306,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="12" t="s">
         <v>99</v>
       </c>
@@ -7352,7 +7327,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="12" t="s">
         <v>101</v>
       </c>
@@ -7373,7 +7348,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="12" t="s">
         <v>103</v>
       </c>
@@ -7394,7 +7369,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="12" t="s">
         <v>105</v>
       </c>
@@ -7415,7 +7390,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="12" t="s">
         <v>107</v>
       </c>
@@ -7436,7 +7411,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="12" t="s">
         <v>109</v>
       </c>
@@ -7457,7 +7432,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="12" t="s">
         <v>111</v>
       </c>
@@ -7478,7 +7453,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="12" t="s">
         <v>113</v>
       </c>
@@ -7499,7 +7474,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="12" t="s">
         <v>115</v>
       </c>
@@ -7520,7 +7495,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="12" t="s">
         <v>117</v>
       </c>
@@ -7541,7 +7516,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="12" t="s">
         <v>119</v>
       </c>
@@ -7562,7 +7537,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="12" t="s">
         <v>121</v>
       </c>
@@ -7583,17 +7558,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B268" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C268" s="38">
+      <c r="C268" s="40">
         <v>0.69</v>
       </c>
-      <c r="D268" s="38"/>
+      <c r="D268" s="40"/>
       <c r="E268" s="17">
         <v>3.9</v>
       </c>
@@ -7604,17 +7579,17 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C269" s="38">
+      <c r="C269" s="40">
         <v>0.22</v>
       </c>
-      <c r="D269" s="38"/>
+      <c r="D269" s="40"/>
       <c r="E269" s="17">
         <v>1.7</v>
       </c>
@@ -7625,17 +7600,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B270" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C270" s="41">
+      <c r="C270" s="30">
         <v>14</v>
       </c>
-      <c r="D270" s="41"/>
+      <c r="D270" s="30"/>
       <c r="E270" s="14">
         <v>68</v>
       </c>
@@ -7646,17 +7621,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B271" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C271" s="40">
+      <c r="C271" s="28">
         <v>3.4</v>
       </c>
-      <c r="D271" s="40"/>
+      <c r="D271" s="28"/>
       <c r="E271" s="14">
         <v>17</v>
       </c>
@@ -7667,17 +7642,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B272" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C272" s="40">
+      <c r="C272" s="28">
         <v>2.7</v>
       </c>
-      <c r="D272" s="40"/>
+      <c r="D272" s="28"/>
       <c r="E272" s="14">
         <v>13</v>
       </c>
@@ -7688,7 +7663,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="12" t="s">
         <v>132</v>
       </c>
@@ -7709,7 +7684,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="12" t="s">
         <v>134</v>
       </c>
@@ -7730,17 +7705,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B275" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C275" s="40">
+      <c r="C275" s="28">
         <v>9.6</v>
       </c>
-      <c r="D275" s="40"/>
+      <c r="D275" s="28"/>
       <c r="E275" s="14">
         <v>41</v>
       </c>
@@ -7751,17 +7726,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B276" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C276" s="40">
+      <c r="C276" s="28">
         <v>5.6</v>
       </c>
-      <c r="D276" s="40"/>
+      <c r="D276" s="28"/>
       <c r="E276" s="14">
         <v>24</v>
       </c>
@@ -7772,29 +7747,29 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="28" t="s">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="28"/>
-      <c r="E277" s="28"/>
-      <c r="F277" s="28"/>
-      <c r="G277" s="28"/>
-    </row>
-    <row r="278" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="29" t="s">
+      <c r="B277" s="38"/>
+      <c r="C277" s="38"/>
+      <c r="D277" s="38"/>
+      <c r="E277" s="38"/>
+      <c r="F277" s="38"/>
+      <c r="G277" s="38"/>
+    </row>
+    <row r="278" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B278" s="29"/>
-      <c r="C278" s="29"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="29"/>
-      <c r="G278" s="29"/>
-    </row>
-    <row r="279" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="33"/>
+      <c r="C278" s="33"/>
+      <c r="D278" s="33"/>
+      <c r="E278" s="33"/>
+      <c r="F278" s="33"/>
+      <c r="G278" s="33"/>
+    </row>
+    <row r="279" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>2</v>
       </c>
@@ -7809,7 +7784,7 @@
       </c>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>4</v>
       </c>
@@ -7819,12 +7794,12 @@
       <c r="E280" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F280" s="30" t="s">
+      <c r="F280" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G280" s="30"/>
-    </row>
-    <row r="281" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G280" s="34"/>
+    </row>
+    <row r="281" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>7</v>
       </c>
@@ -7839,7 +7814,7 @@
       </c>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>9</v>
       </c>
@@ -7854,7 +7829,7 @@
       </c>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>11</v>
       </c>
@@ -7864,12 +7839,12 @@
       <c r="E283" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F283" s="30" t="s">
+      <c r="F283" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G283" s="30"/>
-    </row>
-    <row r="284" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G283" s="34"/>
+    </row>
+    <row r="284" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>13</v>
       </c>
@@ -7879,12 +7854,12 @@
       <c r="E284" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F284" s="30" t="s">
+      <c r="F284" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G284" s="30"/>
-    </row>
-    <row r="285" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G284" s="34"/>
+    </row>
+    <row r="285" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -7897,7 +7872,7 @@
       </c>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -7910,48 +7885,48 @@
       </c>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="31" t="s">
+    <row r="287" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B287" s="31"/>
-      <c r="C287" s="31"/>
-      <c r="D287" s="31"/>
-      <c r="E287" s="31"/>
-      <c r="F287" s="31"/>
-      <c r="G287" s="31"/>
-    </row>
-    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="32" t="s">
+      <c r="B287" s="36"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="36"/>
+      <c r="E287" s="36"/>
+      <c r="F287" s="36"/>
+      <c r="G287" s="36"/>
+    </row>
+    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B288" s="32"/>
+      <c r="B288" s="37"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E288" s="2"/>
-      <c r="F288" s="33" t="s">
+      <c r="F288" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G288" s="33"/>
-    </row>
-    <row r="289" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G288" s="31"/>
+    </row>
+    <row r="289" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="2"/>
       <c r="B289" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C289" s="2"/>
-      <c r="D289" s="33" t="s">
+      <c r="D289" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E289" s="33"/>
-      <c r="F289" s="34" t="s">
+      <c r="E289" s="31"/>
+      <c r="F289" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G289" s="34"/>
-    </row>
-    <row r="290" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G289" s="32"/>
+    </row>
+    <row r="290" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="10" t="s">
         <v>26</v>
       </c>
@@ -7972,7 +7947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="12" t="s">
         <v>30</v>
       </c>
@@ -7995,7 +7970,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="12" t="s">
         <v>33</v>
       </c>
@@ -8016,7 +7991,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="12" t="s">
         <v>35</v>
       </c>
@@ -8037,7 +8012,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="12" t="s">
         <v>38</v>
       </c>
@@ -8058,7 +8033,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="12" t="s">
         <v>40</v>
       </c>
@@ -8079,7 +8054,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="12" t="s">
         <v>42</v>
       </c>
@@ -8100,7 +8075,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="12" t="s">
         <v>44</v>
       </c>
@@ -8121,7 +8096,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="12" t="s">
         <v>46</v>
       </c>
@@ -8142,7 +8117,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="12" t="s">
         <v>48</v>
       </c>
@@ -8163,7 +8138,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="12" t="s">
         <v>50</v>
       </c>
@@ -8184,7 +8159,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="12" t="s">
         <v>52</v>
       </c>
@@ -8205,7 +8180,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="12" t="s">
         <v>54</v>
       </c>
@@ -8226,7 +8201,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="12" t="s">
         <v>56</v>
       </c>
@@ -8247,7 +8222,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="12" t="s">
         <v>58</v>
       </c>
@@ -8268,7 +8243,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="12" t="s">
         <v>60</v>
       </c>
@@ -8289,7 +8264,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="12" t="s">
         <v>62</v>
       </c>
@@ -8310,7 +8285,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="12" t="s">
         <v>64</v>
       </c>
@@ -8331,7 +8306,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="12" t="s">
         <v>66</v>
       </c>
@@ -8352,7 +8327,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="12" t="s">
         <v>68</v>
       </c>
@@ -8373,7 +8348,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="12" t="s">
         <v>70</v>
       </c>
@@ -8394,7 +8369,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="12" t="s">
         <v>72</v>
       </c>
@@ -8415,7 +8390,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="12" t="s">
         <v>74</v>
       </c>
@@ -8436,7 +8411,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="12" t="s">
         <v>76</v>
       </c>
@@ -8457,7 +8432,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="12" t="s">
         <v>78</v>
       </c>
@@ -8478,7 +8453,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="12" t="s">
         <v>80</v>
       </c>
@@ -8499,7 +8474,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="12" t="s">
         <v>82</v>
       </c>
@@ -8520,7 +8495,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="12" t="s">
         <v>84</v>
       </c>
@@ -8541,7 +8516,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="12" t="s">
         <v>86</v>
       </c>
@@ -8562,7 +8537,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="12" t="s">
         <v>88</v>
       </c>
@@ -8583,7 +8558,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="12" t="s">
         <v>90</v>
       </c>
@@ -8604,7 +8579,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="12" t="s">
         <v>92</v>
       </c>
@@ -8625,7 +8600,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="12" t="s">
         <v>94</v>
       </c>
@@ -8646,7 +8621,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="12" t="s">
         <v>96</v>
       </c>
@@ -8667,7 +8642,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="12" t="s">
         <v>98</v>
       </c>
@@ -8688,7 +8663,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="12" t="s">
         <v>99</v>
       </c>
@@ -8709,7 +8684,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="12" t="s">
         <v>101</v>
       </c>
@@ -8730,7 +8705,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="12" t="s">
         <v>103</v>
       </c>
@@ -8751,7 +8726,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="12" t="s">
         <v>105</v>
       </c>
@@ -8772,7 +8747,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="12" t="s">
         <v>107</v>
       </c>
@@ -8793,7 +8768,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="12" t="s">
         <v>109</v>
       </c>
@@ -8814,7 +8789,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="12" t="s">
         <v>111</v>
       </c>
@@ -8835,7 +8810,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="12" t="s">
         <v>113</v>
       </c>
@@ -8856,7 +8831,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="12" t="s">
         <v>115</v>
       </c>
@@ -8877,7 +8852,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="12" t="s">
         <v>117</v>
       </c>
@@ -8898,7 +8873,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="12" t="s">
         <v>119</v>
       </c>
@@ -8919,7 +8894,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="12" t="s">
         <v>121</v>
       </c>
@@ -8940,17 +8915,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B337" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C337" s="38">
+      <c r="C337" s="40">
         <v>0.44</v>
       </c>
-      <c r="D337" s="38"/>
+      <c r="D337" s="40"/>
       <c r="E337" s="17">
         <v>2.5</v>
       </c>
@@ -8961,7 +8936,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="12" t="s">
         <v>124</v>
       </c>
@@ -8982,17 +8957,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B339" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C339" s="40">
+      <c r="C339" s="28">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D339" s="40"/>
+      <c r="D339" s="28"/>
       <c r="E339" s="14">
         <v>46</v>
       </c>
@@ -9003,17 +8978,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B340" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C340" s="40">
+      <c r="C340" s="28">
         <v>2</v>
       </c>
-      <c r="D340" s="40"/>
+      <c r="D340" s="28"/>
       <c r="E340" s="14">
         <v>10</v>
       </c>
@@ -9024,17 +8999,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B341" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C341" s="40">
+      <c r="C341" s="28">
         <v>2</v>
       </c>
-      <c r="D341" s="40"/>
+      <c r="D341" s="28"/>
       <c r="E341" s="17">
         <v>9.1</v>
       </c>
@@ -9045,7 +9020,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="12" t="s">
         <v>132</v>
       </c>
@@ -9066,7 +9041,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="12" t="s">
         <v>134</v>
       </c>
@@ -9087,17 +9062,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B344" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C344" s="40">
+      <c r="C344" s="28">
         <v>6.8</v>
       </c>
-      <c r="D344" s="40"/>
+      <c r="D344" s="28"/>
       <c r="E344" s="14">
         <v>29</v>
       </c>
@@ -9108,17 +9083,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C345" s="40">
+      <c r="C345" s="28">
         <v>3.6</v>
       </c>
-      <c r="D345" s="40"/>
+      <c r="D345" s="28"/>
       <c r="E345" s="14">
         <v>16</v>
       </c>
@@ -9129,29 +9104,29 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="28" t="s">
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B346" s="28"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="28"/>
-      <c r="E346" s="28"/>
-      <c r="F346" s="28"/>
-      <c r="G346" s="28"/>
-    </row>
-    <row r="347" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="29" t="s">
+      <c r="B346" s="38"/>
+      <c r="C346" s="38"/>
+      <c r="D346" s="38"/>
+      <c r="E346" s="38"/>
+      <c r="F346" s="38"/>
+      <c r="G346" s="38"/>
+    </row>
+    <row r="347" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B347" s="29"/>
-      <c r="C347" s="29"/>
-      <c r="D347" s="29"/>
-      <c r="E347" s="29"/>
-      <c r="F347" s="29"/>
-      <c r="G347" s="29"/>
-    </row>
-    <row r="348" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B347" s="33"/>
+      <c r="C347" s="33"/>
+      <c r="D347" s="33"/>
+      <c r="E347" s="33"/>
+      <c r="F347" s="33"/>
+      <c r="G347" s="33"/>
+    </row>
+    <row r="348" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
         <v>2</v>
       </c>
@@ -9166,7 +9141,7 @@
       </c>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>4</v>
       </c>
@@ -9176,12 +9151,12 @@
       <c r="E349" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F349" s="30" t="s">
+      <c r="F349" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G349" s="30"/>
-    </row>
-    <row r="350" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G349" s="34"/>
+    </row>
+    <row r="350" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>7</v>
       </c>
@@ -9196,7 +9171,7 @@
       </c>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>9</v>
       </c>
@@ -9211,7 +9186,7 @@
       </c>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
         <v>11</v>
       </c>
@@ -9221,12 +9196,12 @@
       <c r="E352" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F352" s="30" t="s">
+      <c r="F352" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G352" s="30"/>
-    </row>
-    <row r="353" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G352" s="34"/>
+    </row>
+    <row r="353" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
         <v>13</v>
       </c>
@@ -9236,12 +9211,12 @@
       <c r="E353" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F353" s="30" t="s">
+      <c r="F353" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G353" s="30"/>
-    </row>
-    <row r="354" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G353" s="34"/>
+    </row>
+    <row r="354" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -9254,7 +9229,7 @@
       </c>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -9267,48 +9242,48 @@
       </c>
       <c r="G355" s="6"/>
     </row>
-    <row r="356" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="31" t="s">
+    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B356" s="31"/>
-      <c r="C356" s="31"/>
-      <c r="D356" s="31"/>
-      <c r="E356" s="31"/>
-      <c r="F356" s="31"/>
-      <c r="G356" s="31"/>
-    </row>
-    <row r="357" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="32" t="s">
+      <c r="B356" s="36"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="36"/>
+      <c r="E356" s="36"/>
+      <c r="F356" s="36"/>
+      <c r="G356" s="36"/>
+    </row>
+    <row r="357" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B357" s="32"/>
+      <c r="B357" s="37"/>
       <c r="C357" s="2"/>
       <c r="D357" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E357" s="2"/>
-      <c r="F357" s="33" t="s">
+      <c r="F357" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G357" s="33"/>
-    </row>
-    <row r="358" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G357" s="31"/>
+    </row>
+    <row r="358" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="2"/>
       <c r="B358" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C358" s="2"/>
-      <c r="D358" s="33" t="s">
+      <c r="D358" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E358" s="33"/>
-      <c r="F358" s="34" t="s">
+      <c r="E358" s="31"/>
+      <c r="F358" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G358" s="34"/>
-    </row>
-    <row r="359" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G358" s="32"/>
+    </row>
+    <row r="359" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="10" t="s">
         <v>26</v>
       </c>
@@ -9329,7 +9304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="12" t="s">
         <v>30</v>
       </c>
@@ -9352,7 +9327,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="12" t="s">
         <v>33</v>
       </c>
@@ -9373,7 +9348,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="12" t="s">
         <v>35</v>
       </c>
@@ -9394,7 +9369,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="12" t="s">
         <v>38</v>
       </c>
@@ -9415,7 +9390,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="12" t="s">
         <v>40</v>
       </c>
@@ -9436,7 +9411,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="12" t="s">
         <v>42</v>
       </c>
@@ -9457,7 +9432,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="12" t="s">
         <v>44</v>
       </c>
@@ -9478,7 +9453,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="12" t="s">
         <v>46</v>
       </c>
@@ -9499,7 +9474,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="12" t="s">
         <v>48</v>
       </c>
@@ -9520,7 +9495,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="12" t="s">
         <v>50</v>
       </c>
@@ -9541,7 +9516,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="12" t="s">
         <v>52</v>
       </c>
@@ -9562,7 +9537,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="12" t="s">
         <v>54</v>
       </c>
@@ -9583,7 +9558,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="12" t="s">
         <v>56</v>
       </c>
@@ -9604,7 +9579,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="12" t="s">
         <v>58</v>
       </c>
@@ -9625,7 +9600,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="12" t="s">
         <v>60</v>
       </c>
@@ -9646,7 +9621,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="12" t="s">
         <v>62</v>
       </c>
@@ -9667,7 +9642,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="12" t="s">
         <v>64</v>
       </c>
@@ -9688,7 +9663,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="12" t="s">
         <v>66</v>
       </c>
@@ -9709,7 +9684,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="12" t="s">
         <v>68</v>
       </c>
@@ -9730,7 +9705,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="12" t="s">
         <v>70</v>
       </c>
@@ -9751,7 +9726,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="12" t="s">
         <v>72</v>
       </c>
@@ -9772,7 +9747,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="12" t="s">
         <v>74</v>
       </c>
@@ -9793,7 +9768,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="12" t="s">
         <v>76</v>
       </c>
@@ -9814,7 +9789,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="12" t="s">
         <v>78</v>
       </c>
@@ -9835,7 +9810,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="12" t="s">
         <v>80</v>
       </c>
@@ -9856,7 +9831,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="12" t="s">
         <v>82</v>
       </c>
@@ -9877,7 +9852,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="12" t="s">
         <v>84</v>
       </c>
@@ -9898,7 +9873,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="12" t="s">
         <v>86</v>
       </c>
@@ -9919,7 +9894,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="12" t="s">
         <v>88</v>
       </c>
@@ -9940,7 +9915,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="12" t="s">
         <v>90</v>
       </c>
@@ -9961,7 +9936,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="12" t="s">
         <v>92</v>
       </c>
@@ -9982,7 +9957,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="12" t="s">
         <v>94</v>
       </c>
@@ -10003,7 +9978,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="12" t="s">
         <v>96</v>
       </c>
@@ -10024,7 +9999,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="12" t="s">
         <v>98</v>
       </c>
@@ -10045,7 +10020,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="12" t="s">
         <v>99</v>
       </c>
@@ -10066,7 +10041,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="12" t="s">
         <v>101</v>
       </c>
@@ -10087,7 +10062,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="12" t="s">
         <v>103</v>
       </c>
@@ -10108,7 +10083,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="12" t="s">
         <v>105</v>
       </c>
@@ -10129,7 +10104,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="12" t="s">
         <v>107</v>
       </c>
@@ -10150,7 +10125,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="12" t="s">
         <v>109</v>
       </c>
@@ -10171,7 +10146,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="12" t="s">
         <v>111</v>
       </c>
@@ -10192,7 +10167,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="12" t="s">
         <v>113</v>
       </c>
@@ -10213,7 +10188,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="12" t="s">
         <v>115</v>
       </c>
@@ -10234,7 +10209,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="12" t="s">
         <v>117</v>
       </c>
@@ -10255,7 +10230,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="12" t="s">
         <v>119</v>
       </c>
@@ -10276,7 +10251,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="12" t="s">
         <v>121</v>
       </c>
@@ -10297,17 +10272,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B406" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C406" s="38">
+      <c r="C406" s="40">
         <v>0.5</v>
       </c>
-      <c r="D406" s="38"/>
+      <c r="D406" s="40"/>
       <c r="E406" s="17">
         <v>2.8</v>
       </c>
@@ -10318,7 +10293,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="12" t="s">
         <v>124</v>
       </c>
@@ -10339,17 +10314,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B408" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C408" s="41">
+      <c r="C408" s="30">
         <v>12</v>
       </c>
-      <c r="D408" s="41"/>
+      <c r="D408" s="30"/>
       <c r="E408" s="14">
         <v>60</v>
       </c>
@@ -10360,17 +10335,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B409" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C409" s="40">
+      <c r="C409" s="28">
         <v>2.8</v>
       </c>
-      <c r="D409" s="40"/>
+      <c r="D409" s="28"/>
       <c r="E409" s="14">
         <v>14</v>
       </c>
@@ -10381,17 +10356,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B410" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C410" s="40">
+      <c r="C410" s="28">
         <v>2.9</v>
       </c>
-      <c r="D410" s="40"/>
+      <c r="D410" s="28"/>
       <c r="E410" s="14">
         <v>13</v>
       </c>
@@ -10402,7 +10377,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="12" t="s">
         <v>132</v>
       </c>
@@ -10423,7 +10398,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="12" t="s">
         <v>134</v>
       </c>
@@ -10444,17 +10419,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B413" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C413" s="40">
+      <c r="C413" s="28">
         <v>8.5</v>
       </c>
-      <c r="D413" s="40"/>
+      <c r="D413" s="28"/>
       <c r="E413" s="14">
         <v>37</v>
       </c>
@@ -10465,17 +10440,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B414" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C414" s="40">
+      <c r="C414" s="28">
         <v>4.8</v>
       </c>
-      <c r="D414" s="40"/>
+      <c r="D414" s="28"/>
       <c r="E414" s="14">
         <v>21</v>
       </c>
@@ -10486,29 +10461,29 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="28" t="s">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B415" s="28"/>
-      <c r="C415" s="28"/>
-      <c r="D415" s="28"/>
-      <c r="E415" s="28"/>
-      <c r="F415" s="28"/>
-      <c r="G415" s="28"/>
-    </row>
-    <row r="416" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="29" t="s">
+      <c r="B415" s="38"/>
+      <c r="C415" s="38"/>
+      <c r="D415" s="38"/>
+      <c r="E415" s="38"/>
+      <c r="F415" s="38"/>
+      <c r="G415" s="38"/>
+    </row>
+    <row r="416" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B416" s="29"/>
-      <c r="C416" s="29"/>
-      <c r="D416" s="29"/>
-      <c r="E416" s="29"/>
-      <c r="F416" s="29"/>
-      <c r="G416" s="29"/>
-    </row>
-    <row r="417" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="33"/>
+      <c r="C416" s="33"/>
+      <c r="D416" s="33"/>
+      <c r="E416" s="33"/>
+      <c r="F416" s="33"/>
+      <c r="G416" s="33"/>
+    </row>
+    <row r="417" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
         <v>2</v>
       </c>
@@ -10523,7 +10498,7 @@
       </c>
       <c r="G417" s="2"/>
     </row>
-    <row r="418" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
         <v>4</v>
       </c>
@@ -10533,12 +10508,12 @@
       <c r="E418" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F418" s="30" t="s">
+      <c r="F418" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G418" s="30"/>
-    </row>
-    <row r="419" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G418" s="34"/>
+    </row>
+    <row r="419" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
         <v>7</v>
       </c>
@@ -10553,7 +10528,7 @@
       </c>
       <c r="G419" s="2"/>
     </row>
-    <row r="420" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
         <v>9</v>
       </c>
@@ -10568,7 +10543,7 @@
       </c>
       <c r="G420" s="2"/>
     </row>
-    <row r="421" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
         <v>11</v>
       </c>
@@ -10578,12 +10553,12 @@
       <c r="E421" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F421" s="30" t="s">
+      <c r="F421" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G421" s="30"/>
-    </row>
-    <row r="422" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G421" s="34"/>
+    </row>
+    <row r="422" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>13</v>
       </c>
@@ -10593,12 +10568,12 @@
       <c r="E422" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F422" s="30" t="s">
+      <c r="F422" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="G422" s="30"/>
-    </row>
-    <row r="423" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G422" s="34"/>
+    </row>
+    <row r="423" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -10611,7 +10586,7 @@
       </c>
       <c r="G423" s="2"/>
     </row>
-    <row r="424" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -10624,48 +10599,48 @@
       </c>
       <c r="G424" s="6"/>
     </row>
-    <row r="425" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="31" t="s">
+    <row r="425" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B425" s="31"/>
-      <c r="C425" s="31"/>
-      <c r="D425" s="31"/>
-      <c r="E425" s="31"/>
-      <c r="F425" s="31"/>
-      <c r="G425" s="31"/>
-    </row>
-    <row r="426" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="32" t="s">
+      <c r="B425" s="36"/>
+      <c r="C425" s="36"/>
+      <c r="D425" s="36"/>
+      <c r="E425" s="36"/>
+      <c r="F425" s="36"/>
+      <c r="G425" s="36"/>
+    </row>
+    <row r="426" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B426" s="32"/>
+      <c r="B426" s="37"/>
       <c r="C426" s="2"/>
       <c r="D426" s="7" t="s">
         <v>157</v>
       </c>
       <c r="E426" s="2"/>
-      <c r="F426" s="33" t="s">
+      <c r="F426" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G426" s="33"/>
-    </row>
-    <row r="427" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G426" s="31"/>
+    </row>
+    <row r="427" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="2"/>
       <c r="B427" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C427" s="2"/>
-      <c r="D427" s="33" t="s">
+      <c r="D427" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="E427" s="33"/>
-      <c r="F427" s="34" t="s">
+      <c r="E427" s="31"/>
+      <c r="F427" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G427" s="34"/>
-    </row>
-    <row r="428" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G427" s="32"/>
+    </row>
+    <row r="428" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="10" t="s">
         <v>26</v>
       </c>
@@ -10686,7 +10661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="12" t="s">
         <v>30</v>
       </c>
@@ -10709,7 +10684,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="12" t="s">
         <v>33</v>
       </c>
@@ -10730,7 +10705,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="12" t="s">
         <v>35</v>
       </c>
@@ -10751,7 +10726,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="12" t="s">
         <v>38</v>
       </c>
@@ -10772,7 +10747,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="12" t="s">
         <v>40</v>
       </c>
@@ -10793,7 +10768,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="12" t="s">
         <v>42</v>
       </c>
@@ -10814,7 +10789,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="12" t="s">
         <v>44</v>
       </c>
@@ -10835,7 +10810,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="12" t="s">
         <v>46</v>
       </c>
@@ -10856,7 +10831,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="12" t="s">
         <v>48</v>
       </c>
@@ -10877,7 +10852,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="12" t="s">
         <v>50</v>
       </c>
@@ -10898,7 +10873,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="12" t="s">
         <v>52</v>
       </c>
@@ -10919,7 +10894,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="12" t="s">
         <v>54</v>
       </c>
@@ -10940,7 +10915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="12" t="s">
         <v>56</v>
       </c>
@@ -10961,7 +10936,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="12" t="s">
         <v>58</v>
       </c>
@@ -10982,7 +10957,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="12" t="s">
         <v>60</v>
       </c>
@@ -11003,7 +10978,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="12" t="s">
         <v>62</v>
       </c>
@@ -11024,7 +10999,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="12" t="s">
         <v>64</v>
       </c>
@@ -11045,7 +11020,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="12" t="s">
         <v>66</v>
       </c>
@@ -11066,7 +11041,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="12" t="s">
         <v>68</v>
       </c>
@@ -11087,7 +11062,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="12" t="s">
         <v>70</v>
       </c>
@@ -11108,7 +11083,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="12" t="s">
         <v>72</v>
       </c>
@@ -11129,7 +11104,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="12" t="s">
         <v>74</v>
       </c>
@@ -11150,7 +11125,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="12" t="s">
         <v>76</v>
       </c>
@@ -11171,7 +11146,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="12" t="s">
         <v>78</v>
       </c>
@@ -11192,7 +11167,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="12" t="s">
         <v>80</v>
       </c>
@@ -11213,7 +11188,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="12" t="s">
         <v>82</v>
       </c>
@@ -11234,7 +11209,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="12" t="s">
         <v>84</v>
       </c>
@@ -11255,7 +11230,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="12" t="s">
         <v>86</v>
       </c>
@@ -11276,7 +11251,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="12" t="s">
         <v>88</v>
       </c>
@@ -11297,7 +11272,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="12" t="s">
         <v>90</v>
       </c>
@@ -11318,7 +11293,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="12" t="s">
         <v>92</v>
       </c>
@@ -11339,7 +11314,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="12" t="s">
         <v>94</v>
       </c>
@@ -11360,7 +11335,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="12" t="s">
         <v>96</v>
       </c>
@@ -11381,7 +11356,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="12" t="s">
         <v>98</v>
       </c>
@@ -11402,7 +11377,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="12" t="s">
         <v>99</v>
       </c>
@@ -11423,7 +11398,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="12" t="s">
         <v>101</v>
       </c>
@@ -11444,7 +11419,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="12" t="s">
         <v>103</v>
       </c>
@@ -11465,7 +11440,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="12" t="s">
         <v>105</v>
       </c>
@@ -11486,7 +11461,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="12" t="s">
         <v>107</v>
       </c>
@@ -11507,7 +11482,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="12" t="s">
         <v>109</v>
       </c>
@@ -11528,7 +11503,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="12" t="s">
         <v>111</v>
       </c>
@@ -11551,7 +11526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="12" t="s">
         <v>113</v>
       </c>
@@ -11572,7 +11547,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="12" t="s">
         <v>115</v>
       </c>
@@ -11593,7 +11568,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="12" t="s">
         <v>117</v>
       </c>
@@ -11614,7 +11589,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="12" t="s">
         <v>119</v>
       </c>
@@ -11635,7 +11610,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="12" t="s">
         <v>121</v>
       </c>
@@ -11656,17 +11631,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B475" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C475" s="40">
+      <c r="C475" s="28">
         <v>7.2</v>
       </c>
-      <c r="D475" s="40"/>
+      <c r="D475" s="28"/>
       <c r="E475" s="14">
         <v>40</v>
       </c>
@@ -11677,7 +11652,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="12" t="s">
         <v>124</v>
       </c>
@@ -11698,17 +11673,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B477" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C477" s="41">
+      <c r="C477" s="30">
         <v>11</v>
       </c>
-      <c r="D477" s="41"/>
+      <c r="D477" s="30"/>
       <c r="E477" s="14">
         <v>56</v>
       </c>
@@ -11719,17 +11694,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B478" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C478" s="40">
+      <c r="C478" s="28">
         <v>2.7</v>
       </c>
-      <c r="D478" s="40"/>
+      <c r="D478" s="28"/>
       <c r="E478" s="14">
         <v>13</v>
       </c>
@@ -11740,17 +11715,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B479" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C479" s="40">
+      <c r="C479" s="28">
         <v>2.1</v>
       </c>
-      <c r="D479" s="40"/>
+      <c r="D479" s="28"/>
       <c r="E479" s="17">
         <v>9.6999999999999993</v>
       </c>
@@ -11761,7 +11736,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="12" t="s">
         <v>132</v>
       </c>
@@ -11782,7 +11757,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="12" t="s">
         <v>134</v>
       </c>
@@ -11803,17 +11778,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B482" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C482" s="40">
+      <c r="C482" s="28">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D482" s="40"/>
+      <c r="D482" s="28"/>
       <c r="E482" s="14">
         <v>36</v>
       </c>
@@ -11824,17 +11799,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B483" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C483" s="40">
+      <c r="C483" s="28">
         <v>4.7</v>
       </c>
-      <c r="D483" s="40"/>
+      <c r="D483" s="28"/>
       <c r="E483" s="14">
         <v>20</v>
       </c>
@@ -11845,29 +11820,29 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="28" t="s">
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B484" s="28"/>
-      <c r="C484" s="28"/>
-      <c r="D484" s="28"/>
-      <c r="E484" s="28"/>
-      <c r="F484" s="28"/>
-      <c r="G484" s="28"/>
-    </row>
-    <row r="485" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="29" t="s">
+      <c r="B484" s="38"/>
+      <c r="C484" s="38"/>
+      <c r="D484" s="38"/>
+      <c r="E484" s="38"/>
+      <c r="F484" s="38"/>
+      <c r="G484" s="38"/>
+    </row>
+    <row r="485" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B485" s="29"/>
-      <c r="C485" s="29"/>
-      <c r="D485" s="29"/>
-      <c r="E485" s="29"/>
-      <c r="F485" s="29"/>
-      <c r="G485" s="29"/>
-    </row>
-    <row r="486" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B485" s="33"/>
+      <c r="C485" s="33"/>
+      <c r="D485" s="33"/>
+      <c r="E485" s="33"/>
+      <c r="F485" s="33"/>
+      <c r="G485" s="33"/>
+    </row>
+    <row r="486" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>2</v>
       </c>
@@ -11882,7 +11857,7 @@
       </c>
       <c r="G486" s="2"/>
     </row>
-    <row r="487" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>4</v>
       </c>
@@ -11892,12 +11867,12 @@
       <c r="E487" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F487" s="30" t="s">
+      <c r="F487" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G487" s="30"/>
-    </row>
-    <row r="488" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G487" s="34"/>
+    </row>
+    <row r="488" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>7</v>
       </c>
@@ -11912,7 +11887,7 @@
       </c>
       <c r="G488" s="2"/>
     </row>
-    <row r="489" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
         <v>9</v>
       </c>
@@ -11927,7 +11902,7 @@
       </c>
       <c r="G489" s="2"/>
     </row>
-    <row r="490" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
         <v>11</v>
       </c>
@@ -11942,7 +11917,7 @@
       </c>
       <c r="G490" s="2"/>
     </row>
-    <row r="491" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>13</v>
       </c>
@@ -11957,7 +11932,7 @@
       </c>
       <c r="G491" s="2"/>
     </row>
-    <row r="492" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -11970,7 +11945,7 @@
       </c>
       <c r="G492" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -11983,48 +11958,48 @@
       </c>
       <c r="G493" s="6"/>
     </row>
-    <row r="494" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="31" t="s">
+    <row r="494" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B494" s="31"/>
-      <c r="C494" s="31"/>
-      <c r="D494" s="31"/>
-      <c r="E494" s="31"/>
-      <c r="F494" s="31"/>
-      <c r="G494" s="31"/>
-    </row>
-    <row r="495" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="32" t="s">
+      <c r="B494" s="36"/>
+      <c r="C494" s="36"/>
+      <c r="D494" s="36"/>
+      <c r="E494" s="36"/>
+      <c r="F494" s="36"/>
+      <c r="G494" s="36"/>
+    </row>
+    <row r="495" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B495" s="32"/>
+      <c r="B495" s="37"/>
       <c r="C495" s="2"/>
       <c r="D495" s="7" t="s">
         <v>160</v>
       </c>
       <c r="E495" s="2"/>
-      <c r="F495" s="33" t="s">
+      <c r="F495" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G495" s="33"/>
-    </row>
-    <row r="496" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G495" s="31"/>
+    </row>
+    <row r="496" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="2"/>
       <c r="B496" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C496" s="2"/>
-      <c r="D496" s="33" t="s">
+      <c r="D496" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E496" s="33"/>
-      <c r="F496" s="34" t="s">
+      <c r="E496" s="31"/>
+      <c r="F496" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G496" s="34"/>
-    </row>
-    <row r="497" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G496" s="32"/>
+    </row>
+    <row r="497" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="10" t="s">
         <v>26</v>
       </c>
@@ -12045,7 +12020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="12" t="s">
         <v>30</v>
       </c>
@@ -12068,7 +12043,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="12" t="s">
         <v>33</v>
       </c>
@@ -12091,7 +12066,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="12" t="s">
         <v>35</v>
       </c>
@@ -12112,7 +12087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="12" t="s">
         <v>38</v>
       </c>
@@ -12133,7 +12108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="12" t="s">
         <v>40</v>
       </c>
@@ -12154,7 +12129,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="12" t="s">
         <v>42</v>
       </c>
@@ -12175,7 +12150,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="12" t="s">
         <v>44</v>
       </c>
@@ -12196,7 +12171,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="12" t="s">
         <v>46</v>
       </c>
@@ -12217,7 +12192,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="12" t="s">
         <v>48</v>
       </c>
@@ -12238,7 +12213,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="12" t="s">
         <v>50</v>
       </c>
@@ -12259,7 +12234,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="12" t="s">
         <v>52</v>
       </c>
@@ -12282,7 +12257,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="12" t="s">
         <v>54</v>
       </c>
@@ -12303,7 +12278,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="12" t="s">
         <v>56</v>
       </c>
@@ -12324,7 +12299,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="12" t="s">
         <v>58</v>
       </c>
@@ -12345,7 +12320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="12" t="s">
         <v>60</v>
       </c>
@@ -12366,7 +12341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="12" t="s">
         <v>62</v>
       </c>
@@ -12387,7 +12362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="12" t="s">
         <v>64</v>
       </c>
@@ -12408,7 +12383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="12" t="s">
         <v>66</v>
       </c>
@@ -12429,7 +12404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="12" t="s">
         <v>68</v>
       </c>
@@ -12450,7 +12425,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="12" t="s">
         <v>70</v>
       </c>
@@ -12471,7 +12446,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="12" t="s">
         <v>72</v>
       </c>
@@ -12492,7 +12467,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="12" t="s">
         <v>74</v>
       </c>
@@ -12513,7 +12488,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="12" t="s">
         <v>76</v>
       </c>
@@ -12534,7 +12509,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="12" t="s">
         <v>78</v>
       </c>
@@ -12555,7 +12530,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="12" t="s">
         <v>80</v>
       </c>
@@ -12576,7 +12551,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="12" t="s">
         <v>82</v>
       </c>
@@ -12597,7 +12572,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="12" t="s">
         <v>84</v>
       </c>
@@ -12618,7 +12593,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="12" t="s">
         <v>86</v>
       </c>
@@ -12639,7 +12614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="12" t="s">
         <v>88</v>
       </c>
@@ -12660,7 +12635,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="12" t="s">
         <v>90</v>
       </c>
@@ -12681,7 +12656,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="12" t="s">
         <v>92</v>
       </c>
@@ -12704,7 +12679,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="12" t="s">
         <v>94</v>
       </c>
@@ -12725,7 +12700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="12" t="s">
         <v>96</v>
       </c>
@@ -12748,7 +12723,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="12" t="s">
         <v>98</v>
       </c>
@@ -12771,7 +12746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="12" t="s">
         <v>99</v>
       </c>
@@ -12794,7 +12769,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="12" t="s">
         <v>101</v>
       </c>
@@ -12817,7 +12792,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="12" t="s">
         <v>103</v>
       </c>
@@ -12838,7 +12813,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="12" t="s">
         <v>105</v>
       </c>
@@ -12859,7 +12834,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="12" t="s">
         <v>107</v>
       </c>
@@ -12882,7 +12857,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="12" t="s">
         <v>109</v>
       </c>
@@ -12903,7 +12878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="12" t="s">
         <v>111</v>
       </c>
@@ -12926,7 +12901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="12" t="s">
         <v>113</v>
       </c>
@@ -12949,7 +12924,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="12" t="s">
         <v>115</v>
       </c>
@@ -12970,7 +12945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="12" t="s">
         <v>117</v>
       </c>
@@ -12991,7 +12966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="12" t="s">
         <v>119</v>
       </c>
@@ -13012,7 +12987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="12" t="s">
         <v>121</v>
       </c>
@@ -13033,7 +13008,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="12" t="s">
         <v>122</v>
       </c>
@@ -13054,7 +13029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="12" t="s">
         <v>124</v>
       </c>
@@ -13075,7 +13050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="12" t="s">
         <v>126</v>
       </c>
@@ -13098,7 +13073,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="12" t="s">
         <v>128</v>
       </c>
@@ -13121,7 +13096,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="12" t="s">
         <v>130</v>
       </c>
@@ -13144,7 +13119,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="12" t="s">
         <v>132</v>
       </c>
@@ -13165,7 +13140,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="12" t="s">
         <v>134</v>
       </c>
@@ -13186,7 +13161,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="12" t="s">
         <v>135</v>
       </c>
@@ -13209,7 +13184,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="12" t="s">
         <v>137</v>
       </c>
@@ -13232,29 +13207,29 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="28" t="s">
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B553" s="28"/>
-      <c r="C553" s="28"/>
-      <c r="D553" s="28"/>
-      <c r="E553" s="28"/>
-      <c r="F553" s="28"/>
-      <c r="G553" s="28"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="29" t="s">
+      <c r="B553" s="38"/>
+      <c r="C553" s="38"/>
+      <c r="D553" s="38"/>
+      <c r="E553" s="38"/>
+      <c r="F553" s="38"/>
+      <c r="G553" s="38"/>
+    </row>
+    <row r="554" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B554" s="29"/>
-      <c r="C554" s="29"/>
-      <c r="D554" s="29"/>
-      <c r="E554" s="29"/>
-      <c r="F554" s="29"/>
-      <c r="G554" s="29"/>
-    </row>
-    <row r="555" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B554" s="33"/>
+      <c r="C554" s="33"/>
+      <c r="D554" s="33"/>
+      <c r="E554" s="33"/>
+      <c r="F554" s="33"/>
+      <c r="G554" s="33"/>
+    </row>
+    <row r="555" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1" t="s">
         <v>2</v>
       </c>
@@ -13269,7 +13244,7 @@
       </c>
       <c r="G555" s="2"/>
     </row>
-    <row r="556" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="1" t="s">
         <v>4</v>
       </c>
@@ -13279,12 +13254,12 @@
       <c r="E556" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F556" s="30" t="s">
+      <c r="F556" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G556" s="30"/>
-    </row>
-    <row r="557" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G556" s="34"/>
+    </row>
+    <row r="557" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="1" t="s">
         <v>7</v>
       </c>
@@ -13299,7 +13274,7 @@
       </c>
       <c r="G557" s="2"/>
     </row>
-    <row r="558" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="1" t="s">
         <v>9</v>
       </c>
@@ -13314,7 +13289,7 @@
       </c>
       <c r="G558" s="2"/>
     </row>
-    <row r="559" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="1" t="s">
         <v>11</v>
       </c>
@@ -13329,7 +13304,7 @@
       </c>
       <c r="G559" s="2"/>
     </row>
-    <row r="560" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="1" t="s">
         <v>13</v>
       </c>
@@ -13344,7 +13319,7 @@
       </c>
       <c r="G560" s="2"/>
     </row>
-    <row r="561" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -13357,7 +13332,7 @@
       </c>
       <c r="G561" s="2"/>
     </row>
-    <row r="562" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -13370,48 +13345,48 @@
       </c>
       <c r="G562" s="6"/>
     </row>
-    <row r="563" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="31" t="s">
+    <row r="563" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B563" s="31"/>
-      <c r="C563" s="31"/>
-      <c r="D563" s="31"/>
-      <c r="E563" s="31"/>
-      <c r="F563" s="31"/>
-      <c r="G563" s="31"/>
-    </row>
-    <row r="564" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="32" t="s">
+      <c r="B563" s="36"/>
+      <c r="C563" s="36"/>
+      <c r="D563" s="36"/>
+      <c r="E563" s="36"/>
+      <c r="F563" s="36"/>
+      <c r="G563" s="36"/>
+    </row>
+    <row r="564" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B564" s="32"/>
+      <c r="B564" s="37"/>
       <c r="C564" s="2"/>
       <c r="D564" s="7" t="s">
         <v>163</v>
       </c>
       <c r="E564" s="2"/>
-      <c r="F564" s="33" t="s">
+      <c r="F564" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G564" s="33"/>
-    </row>
-    <row r="565" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G564" s="31"/>
+    </row>
+    <row r="565" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="2"/>
       <c r="B565" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C565" s="2"/>
-      <c r="D565" s="33" t="s">
+      <c r="D565" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E565" s="33"/>
-      <c r="F565" s="34" t="s">
+      <c r="E565" s="31"/>
+      <c r="F565" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G565" s="34"/>
-    </row>
-    <row r="566" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G565" s="32"/>
+    </row>
+    <row r="566" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="10" t="s">
         <v>26</v>
       </c>
@@ -13432,7 +13407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="12" t="s">
         <v>30</v>
       </c>
@@ -13455,7 +13430,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="12" t="s">
         <v>33</v>
       </c>
@@ -13478,7 +13453,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="12" t="s">
         <v>35</v>
       </c>
@@ -13499,7 +13474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="12" t="s">
         <v>38</v>
       </c>
@@ -13520,7 +13495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="12" t="s">
         <v>40</v>
       </c>
@@ -13541,7 +13516,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="12" t="s">
         <v>42</v>
       </c>
@@ -13562,7 +13537,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="12" t="s">
         <v>44</v>
       </c>
@@ -13583,7 +13558,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="12" t="s">
         <v>46</v>
       </c>
@@ -13604,7 +13579,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="12" t="s">
         <v>48</v>
       </c>
@@ -13625,7 +13600,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="12" t="s">
         <v>50</v>
       </c>
@@ -13646,7 +13621,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="12" t="s">
         <v>52</v>
       </c>
@@ -13669,7 +13644,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="12" t="s">
         <v>54</v>
       </c>
@@ -13690,7 +13665,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="12" t="s">
         <v>56</v>
       </c>
@@ -13713,7 +13688,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="12" t="s">
         <v>58</v>
       </c>
@@ -13734,7 +13709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="12" t="s">
         <v>60</v>
       </c>
@@ -13755,7 +13730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="12" t="s">
         <v>62</v>
       </c>
@@ -13776,7 +13751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="12" t="s">
         <v>64</v>
       </c>
@@ -13797,7 +13772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="12" t="s">
         <v>66</v>
       </c>
@@ -13818,7 +13793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="12" t="s">
         <v>68</v>
       </c>
@@ -13839,7 +13814,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="12" t="s">
         <v>70</v>
       </c>
@@ -13860,7 +13835,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="12" t="s">
         <v>72</v>
       </c>
@@ -13881,7 +13856,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="12" t="s">
         <v>74</v>
       </c>
@@ -13902,7 +13877,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="12" t="s">
         <v>76</v>
       </c>
@@ -13923,7 +13898,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="12" t="s">
         <v>78</v>
       </c>
@@ -13944,7 +13919,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="12" t="s">
         <v>80</v>
       </c>
@@ -13965,7 +13940,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="12" t="s">
         <v>82</v>
       </c>
@@ -13986,7 +13961,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="12" t="s">
         <v>84</v>
       </c>
@@ -14007,7 +13982,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="12" t="s">
         <v>86</v>
       </c>
@@ -14028,7 +14003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="12" t="s">
         <v>88</v>
       </c>
@@ -14049,7 +14024,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="12" t="s">
         <v>90</v>
       </c>
@@ -14070,7 +14045,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="12" t="s">
         <v>92</v>
       </c>
@@ -14093,7 +14068,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="12" t="s">
         <v>94</v>
       </c>
@@ -14114,7 +14089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="12" t="s">
         <v>96</v>
       </c>
@@ -14137,7 +14112,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="12" t="s">
         <v>98</v>
       </c>
@@ -14160,7 +14135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="12" t="s">
         <v>99</v>
       </c>
@@ -14183,7 +14158,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="12" t="s">
         <v>101</v>
       </c>
@@ -14204,7 +14179,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="12" t="s">
         <v>103</v>
       </c>
@@ -14225,7 +14200,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="12" t="s">
         <v>105</v>
       </c>
@@ -14246,7 +14221,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="12" t="s">
         <v>107</v>
       </c>
@@ -14267,7 +14242,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="12" t="s">
         <v>109</v>
       </c>
@@ -14288,7 +14263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="12" t="s">
         <v>111</v>
       </c>
@@ -14309,7 +14284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="12" t="s">
         <v>113</v>
       </c>
@@ -14332,7 +14307,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="12" t="s">
         <v>115</v>
       </c>
@@ -14353,7 +14328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="12" t="s">
         <v>117</v>
       </c>
@@ -14374,7 +14349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="12" t="s">
         <v>119</v>
       </c>
@@ -14395,7 +14370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="12" t="s">
         <v>121</v>
       </c>
@@ -14416,7 +14391,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="12" t="s">
         <v>122</v>
       </c>
@@ -14437,7 +14412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="12" t="s">
         <v>124</v>
       </c>
@@ -14458,7 +14433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="12" t="s">
         <v>126</v>
       </c>
@@ -14481,7 +14456,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="12" t="s">
         <v>128</v>
       </c>
@@ -14502,7 +14477,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="12" t="s">
         <v>130</v>
       </c>
@@ -14525,7 +14500,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="12" t="s">
         <v>132</v>
       </c>
@@ -14546,7 +14521,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="12" t="s">
         <v>134</v>
       </c>
@@ -14567,7 +14542,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="12" t="s">
         <v>135</v>
       </c>
@@ -14590,7 +14565,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="12" t="s">
         <v>137</v>
       </c>
@@ -14613,29 +14588,29 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="28" t="s">
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B622" s="28"/>
-      <c r="C622" s="28"/>
-      <c r="D622" s="28"/>
-      <c r="E622" s="28"/>
-      <c r="F622" s="28"/>
-      <c r="G622" s="28"/>
-    </row>
-    <row r="623" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="29" t="s">
+      <c r="B622" s="38"/>
+      <c r="C622" s="38"/>
+      <c r="D622" s="38"/>
+      <c r="E622" s="38"/>
+      <c r="F622" s="38"/>
+      <c r="G622" s="38"/>
+    </row>
+    <row r="623" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B623" s="29"/>
-      <c r="C623" s="29"/>
-      <c r="D623" s="29"/>
-      <c r="E623" s="29"/>
-      <c r="F623" s="29"/>
-      <c r="G623" s="29"/>
-    </row>
-    <row r="624" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B623" s="33"/>
+      <c r="C623" s="33"/>
+      <c r="D623" s="33"/>
+      <c r="E623" s="33"/>
+      <c r="F623" s="33"/>
+      <c r="G623" s="33"/>
+    </row>
+    <row r="624" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="1" t="s">
         <v>2</v>
       </c>
@@ -14650,7 +14625,7 @@
       </c>
       <c r="G624" s="2"/>
     </row>
-    <row r="625" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="1" t="s">
         <v>4</v>
       </c>
@@ -14660,12 +14635,12 @@
       <c r="E625" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F625" s="30" t="s">
+      <c r="F625" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G625" s="30"/>
-    </row>
-    <row r="626" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G625" s="34"/>
+    </row>
+    <row r="626" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="1" t="s">
         <v>7</v>
       </c>
@@ -14680,37 +14655,37 @@
       </c>
       <c r="G626" s="2"/>
     </row>
-    <row r="627" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
-      <c r="D627" s="42" t="s">
+      <c r="D627" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E627" s="42"/>
+      <c r="E627" s="35"/>
       <c r="F627" s="4">
         <v>44061</v>
       </c>
       <c r="G627" s="2"/>
     </row>
-    <row r="628" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
-      <c r="D628" s="42" t="s">
+      <c r="D628" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E628" s="42"/>
-      <c r="F628" s="30" t="s">
+      <c r="E628" s="35"/>
+      <c r="F628" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G628" s="30"/>
-    </row>
-    <row r="629" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G628" s="34"/>
+    </row>
+    <row r="629" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="1" t="s">
         <v>13</v>
       </c>
@@ -14720,12 +14695,12 @@
       <c r="E629" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F629" s="30" t="s">
+      <c r="F629" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="G629" s="30"/>
-    </row>
-    <row r="630" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G629" s="34"/>
+    </row>
+    <row r="630" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -14738,7 +14713,7 @@
       </c>
       <c r="G630" s="2"/>
     </row>
-    <row r="631" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -14751,48 +14726,48 @@
       </c>
       <c r="G631" s="6"/>
     </row>
-    <row r="632" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="31" t="s">
+    <row r="632" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A632" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B632" s="31"/>
-      <c r="C632" s="31"/>
-      <c r="D632" s="31"/>
-      <c r="E632" s="31"/>
-      <c r="F632" s="31"/>
-      <c r="G632" s="31"/>
-    </row>
-    <row r="633" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="32" t="s">
+      <c r="B632" s="36"/>
+      <c r="C632" s="36"/>
+      <c r="D632" s="36"/>
+      <c r="E632" s="36"/>
+      <c r="F632" s="36"/>
+      <c r="G632" s="36"/>
+    </row>
+    <row r="633" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B633" s="32"/>
+      <c r="B633" s="37"/>
       <c r="C633" s="2"/>
       <c r="D633" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E633" s="2"/>
-      <c r="F633" s="33" t="s">
+      <c r="F633" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G633" s="33"/>
-    </row>
-    <row r="634" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G633" s="31"/>
+    </row>
+    <row r="634" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="2"/>
       <c r="B634" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C634" s="2"/>
-      <c r="D634" s="33" t="s">
+      <c r="D634" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E634" s="33"/>
-      <c r="F634" s="34" t="s">
+      <c r="E634" s="31"/>
+      <c r="F634" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G634" s="34"/>
-    </row>
-    <row r="635" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G634" s="32"/>
+    </row>
+    <row r="635" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="10" t="s">
         <v>26</v>
       </c>
@@ -14813,7 +14788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="12" t="s">
         <v>30</v>
       </c>
@@ -14836,7 +14811,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="12" t="s">
         <v>33</v>
       </c>
@@ -14857,7 +14832,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="12" t="s">
         <v>35</v>
       </c>
@@ -14878,7 +14853,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="12" t="s">
         <v>38</v>
       </c>
@@ -14899,7 +14874,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="12" t="s">
         <v>40</v>
       </c>
@@ -14920,7 +14895,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="12" t="s">
         <v>42</v>
       </c>
@@ -14941,7 +14916,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="12" t="s">
         <v>44</v>
       </c>
@@ -14962,7 +14937,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="12" t="s">
         <v>46</v>
       </c>
@@ -14983,7 +14958,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="12" t="s">
         <v>48</v>
       </c>
@@ -15004,7 +14979,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="12" t="s">
         <v>50</v>
       </c>
@@ -15025,7 +15000,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="12" t="s">
         <v>52</v>
       </c>
@@ -15046,7 +15021,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="12" t="s">
         <v>54</v>
       </c>
@@ -15067,7 +15042,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="12" t="s">
         <v>56</v>
       </c>
@@ -15088,7 +15063,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="12" t="s">
         <v>58</v>
       </c>
@@ -15109,7 +15084,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="12" t="s">
         <v>60</v>
       </c>
@@ -15130,7 +15105,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="12" t="s">
         <v>62</v>
       </c>
@@ -15151,7 +15126,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="12" t="s">
         <v>64</v>
       </c>
@@ -15172,7 +15147,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="12" t="s">
         <v>66</v>
       </c>
@@ -15193,7 +15168,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="12" t="s">
         <v>68</v>
       </c>
@@ -15214,7 +15189,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="12" t="s">
         <v>70</v>
       </c>
@@ -15235,7 +15210,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="12" t="s">
         <v>72</v>
       </c>
@@ -15256,7 +15231,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="12" t="s">
         <v>74</v>
       </c>
@@ -15277,7 +15252,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="12" t="s">
         <v>76</v>
       </c>
@@ -15298,7 +15273,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="12" t="s">
         <v>78</v>
       </c>
@@ -15319,7 +15294,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="12" t="s">
         <v>80</v>
       </c>
@@ -15340,7 +15315,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="12" t="s">
         <v>82</v>
       </c>
@@ -15361,7 +15336,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="12" t="s">
         <v>84</v>
       </c>
@@ -15382,7 +15357,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="12" t="s">
         <v>86</v>
       </c>
@@ -15403,7 +15378,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="12" t="s">
         <v>88</v>
       </c>
@@ -15424,7 +15399,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="12" t="s">
         <v>90</v>
       </c>
@@ -15445,7 +15420,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="12" t="s">
         <v>92</v>
       </c>
@@ -15466,7 +15441,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="12" t="s">
         <v>94</v>
       </c>
@@ -15487,7 +15462,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="12" t="s">
         <v>96</v>
       </c>
@@ -15508,7 +15483,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="12" t="s">
         <v>98</v>
       </c>
@@ -15529,7 +15504,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="12" t="s">
         <v>99</v>
       </c>
@@ -15550,7 +15525,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="12" t="s">
         <v>101</v>
       </c>
@@ -15571,7 +15546,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="12" t="s">
         <v>103</v>
       </c>
@@ -15592,7 +15567,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="12" t="s">
         <v>105</v>
       </c>
@@ -15613,7 +15588,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="12" t="s">
         <v>107</v>
       </c>
@@ -15634,7 +15609,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="12" t="s">
         <v>109</v>
       </c>
@@ -15655,7 +15630,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="12" t="s">
         <v>111</v>
       </c>
@@ -15676,7 +15651,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="12" t="s">
         <v>113</v>
       </c>
@@ -15697,7 +15672,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="12" t="s">
         <v>115</v>
       </c>
@@ -15718,7 +15693,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="12" t="s">
         <v>117</v>
       </c>
@@ -15739,7 +15714,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="12" t="s">
         <v>119</v>
       </c>
@@ -15760,7 +15735,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="12" t="s">
         <v>121</v>
       </c>
@@ -15781,17 +15756,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B682" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C682" s="40">
+      <c r="C682" s="28">
         <v>1.5</v>
       </c>
-      <c r="D682" s="40"/>
+      <c r="D682" s="28"/>
       <c r="E682" s="27">
         <v>8.3000000000000007</v>
       </c>
@@ -15802,17 +15777,17 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B683" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C683" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D683" s="43"/>
+      <c r="C683" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D683" s="29"/>
       <c r="E683" s="20" t="s">
         <v>37</v>
       </c>
@@ -15823,17 +15798,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B684" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C684" s="41">
+      <c r="C684" s="30">
         <v>15</v>
       </c>
-      <c r="D684" s="41"/>
+      <c r="D684" s="30"/>
       <c r="E684" s="15">
         <v>71</v>
       </c>
@@ -15844,17 +15819,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B685" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C685" s="40">
+      <c r="C685" s="28">
         <v>3.5</v>
       </c>
-      <c r="D685" s="40"/>
+      <c r="D685" s="28"/>
       <c r="E685" s="15">
         <v>17</v>
       </c>
@@ -15865,17 +15840,17 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B686" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C686" s="40">
+      <c r="C686" s="28">
         <v>4.2</v>
       </c>
-      <c r="D686" s="40"/>
+      <c r="D686" s="28"/>
       <c r="E686" s="15">
         <v>20</v>
       </c>
@@ -15886,17 +15861,17 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B687" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C687" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D687" s="43"/>
+      <c r="C687" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D687" s="29"/>
       <c r="E687" s="20" t="s">
         <v>37</v>
       </c>
@@ -15907,17 +15882,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B688" s="23">
         <v>63923</v>
       </c>
-      <c r="C688" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D688" s="43"/>
+      <c r="C688" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D688" s="29"/>
       <c r="E688" s="20" t="s">
         <v>37</v>
       </c>
@@ -15928,17 +15903,17 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B689" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C689" s="41">
+      <c r="C689" s="30">
         <v>13</v>
       </c>
-      <c r="D689" s="41"/>
+      <c r="D689" s="30"/>
       <c r="E689" s="15">
         <v>55</v>
       </c>
@@ -15949,17 +15924,17 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B690" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C690" s="40">
+      <c r="C690" s="28">
         <v>6.9</v>
       </c>
-      <c r="D690" s="40"/>
+      <c r="D690" s="28"/>
       <c r="E690" s="15">
         <v>30</v>
       </c>
@@ -15972,35 +15947,184 @@
     </row>
   </sheetData>
   <mergeCells count="223">
-    <mergeCell ref="C690:D690"/>
-    <mergeCell ref="C682:D682"/>
-    <mergeCell ref="C683:D683"/>
-    <mergeCell ref="C684:D684"/>
-    <mergeCell ref="C685:D685"/>
-    <mergeCell ref="C686:D686"/>
-    <mergeCell ref="C687:D687"/>
-    <mergeCell ref="C688:D688"/>
-    <mergeCell ref="C689:D689"/>
-    <mergeCell ref="D634:E634"/>
-    <mergeCell ref="F634:G634"/>
-    <mergeCell ref="A623:G623"/>
-    <mergeCell ref="F625:G625"/>
-    <mergeCell ref="D627:E627"/>
-    <mergeCell ref="D628:E628"/>
-    <mergeCell ref="F628:G628"/>
-    <mergeCell ref="F629:G629"/>
-    <mergeCell ref="A632:G632"/>
-    <mergeCell ref="A633:B633"/>
-    <mergeCell ref="F633:G633"/>
-    <mergeCell ref="D565:E565"/>
-    <mergeCell ref="F565:G565"/>
-    <mergeCell ref="A622:G622"/>
-    <mergeCell ref="A553:G553"/>
-    <mergeCell ref="A554:G554"/>
-    <mergeCell ref="F556:G556"/>
-    <mergeCell ref="A563:G563"/>
-    <mergeCell ref="A564:B564"/>
-    <mergeCell ref="F564:G564"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="A208:G208"/>
+    <mergeCell ref="A209:G209"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="A218:G218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="C269:D269"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="C274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C276:D276"/>
+    <mergeCell ref="A277:G277"/>
+    <mergeCell ref="C337:D337"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="A287:G287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="C338:D338"/>
+    <mergeCell ref="C339:D339"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="C345:D345"/>
+    <mergeCell ref="A346:G346"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="A347:G347"/>
+    <mergeCell ref="F349:G349"/>
+    <mergeCell ref="F352:G352"/>
+    <mergeCell ref="F353:G353"/>
+    <mergeCell ref="A356:G356"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="F357:G357"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="F358:G358"/>
+    <mergeCell ref="C407:D407"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="C409:D409"/>
+    <mergeCell ref="C410:D410"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="C412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="C414:D414"/>
+    <mergeCell ref="A415:G415"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="A416:G416"/>
+    <mergeCell ref="F418:G418"/>
+    <mergeCell ref="F421:G421"/>
+    <mergeCell ref="F422:G422"/>
+    <mergeCell ref="A425:G425"/>
+    <mergeCell ref="A426:B426"/>
+    <mergeCell ref="F426:G426"/>
+    <mergeCell ref="D427:E427"/>
+    <mergeCell ref="F427:G427"/>
     <mergeCell ref="A485:G485"/>
     <mergeCell ref="F487:G487"/>
     <mergeCell ref="A494:G494"/>
@@ -16017,184 +16141,35 @@
     <mergeCell ref="C482:D482"/>
     <mergeCell ref="C483:D483"/>
     <mergeCell ref="A484:G484"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="A416:G416"/>
-    <mergeCell ref="F418:G418"/>
-    <mergeCell ref="F421:G421"/>
-    <mergeCell ref="F422:G422"/>
-    <mergeCell ref="A425:G425"/>
-    <mergeCell ref="A426:B426"/>
-    <mergeCell ref="F426:G426"/>
-    <mergeCell ref="D427:E427"/>
-    <mergeCell ref="F427:G427"/>
-    <mergeCell ref="C407:D407"/>
-    <mergeCell ref="C408:D408"/>
-    <mergeCell ref="C409:D409"/>
-    <mergeCell ref="C410:D410"/>
-    <mergeCell ref="C411:D411"/>
-    <mergeCell ref="C412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="C414:D414"/>
-    <mergeCell ref="A415:G415"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="A347:G347"/>
-    <mergeCell ref="F349:G349"/>
-    <mergeCell ref="F352:G352"/>
-    <mergeCell ref="F353:G353"/>
-    <mergeCell ref="A356:G356"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="F357:G357"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="F358:G358"/>
-    <mergeCell ref="C338:D338"/>
-    <mergeCell ref="C339:D339"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="C345:D345"/>
-    <mergeCell ref="A346:G346"/>
-    <mergeCell ref="C337:D337"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="F280:G280"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="A287:G287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="C269:D269"/>
-    <mergeCell ref="C270:D270"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="C273:D273"/>
-    <mergeCell ref="C274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C276:D276"/>
-    <mergeCell ref="A277:G277"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="A218:G218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="A208:G208"/>
-    <mergeCell ref="A209:G209"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D565:E565"/>
+    <mergeCell ref="F565:G565"/>
+    <mergeCell ref="A622:G622"/>
+    <mergeCell ref="A553:G553"/>
+    <mergeCell ref="A554:G554"/>
+    <mergeCell ref="F556:G556"/>
+    <mergeCell ref="A563:G563"/>
+    <mergeCell ref="A564:B564"/>
+    <mergeCell ref="F564:G564"/>
+    <mergeCell ref="D634:E634"/>
+    <mergeCell ref="F634:G634"/>
+    <mergeCell ref="A623:G623"/>
+    <mergeCell ref="F625:G625"/>
+    <mergeCell ref="D627:E627"/>
+    <mergeCell ref="D628:E628"/>
+    <mergeCell ref="F628:G628"/>
+    <mergeCell ref="F629:G629"/>
+    <mergeCell ref="A632:G632"/>
+    <mergeCell ref="A633:B633"/>
+    <mergeCell ref="F633:G633"/>
+    <mergeCell ref="C690:D690"/>
+    <mergeCell ref="C682:D682"/>
+    <mergeCell ref="C683:D683"/>
+    <mergeCell ref="C684:D684"/>
+    <mergeCell ref="C685:D685"/>
+    <mergeCell ref="C686:D686"/>
+    <mergeCell ref="C687:D687"/>
+    <mergeCell ref="C688:D688"/>
+    <mergeCell ref="C689:D689"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
